--- a/biological studies.xlsx
+++ b/biological studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiaochsner/Documents/Thesis/branch-lengths-paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A3E430FB-1D5C-214A-A383-B0C7081DCEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B077052-061F-5F4B-9D53-1140A5AB1A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{B5FD0977-0991-D648-A373-806D6CB44D67}"/>
   </bookViews>
@@ -3581,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32FE525-9392-C64B-BB12-6C5F047EE504}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I209" sqref="I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9142,7 +9142,7 @@
       <c r="G208" t="s">
         <v>799</v>
       </c>
-      <c r="H208" t="s">
+      <c r="I208" t="s">
         <v>840</v>
       </c>
       <c r="J208" t="s">
@@ -9171,7 +9171,7 @@
       <c r="G209" t="s">
         <v>799</v>
       </c>
-      <c r="H209" t="s">
+      <c r="I209" t="s">
         <v>840</v>
       </c>
       <c r="J209" t="s">
@@ -9200,7 +9200,7 @@
       <c r="G210" t="s">
         <v>799</v>
       </c>
-      <c r="H210" t="s">
+      <c r="I210" t="s">
         <v>841</v>
       </c>
       <c r="J210" t="s">

--- a/biological studies.xlsx
+++ b/biological studies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiaochsner/Documents/Thesis/branch-lengths-paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051E1EE2-9D20-0340-9641-20EB8A67B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE47CA-5647-9B40-8BAA-2CF97F088C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{B5FD0977-0991-D648-A373-806D6CB44D67}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="883">
   <si>
     <t>dyriad_link</t>
   </si>
@@ -3020,7 +3020,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3155,6 +3155,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3200,14 +3220,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3281,21 +3303,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F27A8FA5-63B5-214E-B484-257B20E3C8E4}" name="Tabelle1" displayName="Tabelle1" ref="A1:M259" totalsRowShown="0">
-  <autoFilter ref="A1:M259" xr:uid="{F27A8FA5-63B5-214E-B484-257B20E3C8E4}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters>
-        <filter val="true"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J259">
-    <sortCondition descending="1" ref="E1:E259"/>
-  </sortState>
+  <autoFilter ref="A1:M259" xr:uid="{F27A8FA5-63B5-214E-B484-257B20E3C8E4}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{6E760ADB-9E16-0144-81A5-C36EFFCA53BE}" name="dyriad_link"/>
     <tableColumn id="2" xr3:uid="{ACC93575-3A6F-C949-8243-9B8893BC5736}" name="dataset_name"/>
@@ -3640,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32FE525-9392-C64B-BB12-6C5F047EE504}">
   <dimension ref="A1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3779,7 +3787,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>720</v>
       </c>
@@ -3817,7 +3825,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>720</v>
       </c>
@@ -3855,7 +3863,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>696</v>
       </c>
@@ -3899,7 +3907,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>696</v>
       </c>
@@ -3937,7 +3945,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>696</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>696</v>
       </c>
@@ -4013,7 +4021,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -4136,7 +4144,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>762</v>
       </c>
@@ -4174,7 +4182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>762</v>
       </c>
@@ -4218,7 +4226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>762</v>
       </c>
@@ -4256,7 +4264,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>762</v>
       </c>
@@ -4294,7 +4302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>762</v>
       </c>
@@ -4332,7 +4340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>762</v>
       </c>
@@ -4370,7 +4378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>762</v>
       </c>
@@ -4408,7 +4416,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>762</v>
       </c>
@@ -4446,7 +4454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>762</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>762</v>
       </c>
@@ -4522,7 +4530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>774</v>
       </c>
@@ -4566,7 +4574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>774</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>781</v>
       </c>
@@ -4689,7 +4697,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>753</v>
       </c>
@@ -4724,7 +4732,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>781</v>
       </c>
@@ -4768,7 +4776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>696</v>
       </c>
@@ -4812,7 +4820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>696</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>781</v>
       </c>
@@ -5099,7 +5107,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>733</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>733</v>
       </c>
@@ -5175,7 +5183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>733</v>
       </c>
@@ -5213,7 +5221,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>733</v>
       </c>
@@ -5292,7 +5300,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>781</v>
       </c>
@@ -5377,7 +5385,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>743</v>
       </c>
@@ -5421,7 +5429,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>774</v>
       </c>
@@ -5465,7 +5473,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>781</v>
       </c>
@@ -5509,7 +5517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>713</v>
       </c>
@@ -5547,7 +5555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>713</v>
       </c>
@@ -5585,7 +5593,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>713</v>
       </c>
@@ -5623,7 +5631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>774</v>
       </c>
@@ -5703,7 +5711,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>783</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>712</v>
       </c>
@@ -5785,7 +5793,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>712</v>
       </c>
@@ -5823,7 +5831,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>752</v>
       </c>
@@ -5908,7 +5916,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>781</v>
       </c>
@@ -5952,7 +5960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>699</v>
       </c>
@@ -6031,7 +6039,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>699</v>
       </c>
@@ -6110,7 +6118,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>763</v>
       </c>
@@ -6151,7 +6159,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>737</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>699</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>699</v>
       </c>
@@ -6268,7 +6276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>730</v>
       </c>
@@ -6350,7 +6358,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>729</v>
       </c>
@@ -6473,7 +6481,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>750</v>
       </c>
@@ -6514,7 +6522,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>729</v>
       </c>
@@ -6555,7 +6563,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>696</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>769</v>
       </c>
@@ -6640,7 +6648,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>750</v>
       </c>
@@ -6722,7 +6730,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>731</v>
       </c>
@@ -6763,7 +6771,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>707</v>
       </c>
@@ -6965,7 +6973,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>714</v>
       </c>
@@ -7003,7 +7011,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>705</v>
       </c>
@@ -7082,7 +7090,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>769</v>
       </c>
@@ -7205,7 +7213,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>769</v>
       </c>
@@ -7328,7 +7336,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>715</v>
       </c>
@@ -7407,7 +7415,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>724</v>
       </c>
@@ -7442,7 +7450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>724</v>
       </c>
@@ -7477,7 +7485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>710</v>
       </c>
@@ -7515,7 +7523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>769</v>
       </c>
@@ -7556,7 +7564,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>709</v>
       </c>
@@ -7597,7 +7605,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>704</v>
       </c>
@@ -7676,7 +7684,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>769</v>
       </c>
@@ -7881,7 +7889,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>753</v>
       </c>
@@ -7998,7 +8006,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>791</v>
       </c>
@@ -8042,7 +8050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>700</v>
       </c>
@@ -8080,7 +8088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>700</v>
       </c>
@@ -8159,7 +8167,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>769</v>
       </c>
@@ -8241,7 +8249,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>769</v>
       </c>
@@ -8364,7 +8372,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>741</v>
       </c>
@@ -8402,7 +8410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>767</v>
       </c>
@@ -8443,7 +8451,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>704</v>
       </c>
@@ -8522,7 +8530,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>702</v>
       </c>
@@ -8560,7 +8568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>748</v>
       </c>
@@ -8601,7 +8609,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>704</v>
       </c>
@@ -8639,7 +8647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>769</v>
       </c>
@@ -8844,7 +8852,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>724</v>
       </c>
@@ -8879,7 +8887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>700</v>
       </c>
@@ -8917,7 +8925,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>700</v>
       </c>
@@ -8955,7 +8963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>696</v>
       </c>
@@ -8993,7 +9001,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>710</v>
       </c>
@@ -9031,7 +9039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>696</v>
       </c>
@@ -9069,7 +9077,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>696</v>
       </c>
@@ -9107,7 +9115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>697</v>
       </c>
@@ -9145,7 +9153,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>734</v>
       </c>
@@ -9183,7 +9191,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>736</v>
       </c>
@@ -9262,7 +9270,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>703</v>
       </c>
@@ -9341,7 +9349,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>718</v>
       </c>
@@ -9379,7 +9387,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>758</v>
       </c>
@@ -9417,7 +9425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>718</v>
       </c>
@@ -9496,7 +9504,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>771</v>
       </c>
@@ -9537,7 +9545,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>718</v>
       </c>
@@ -9616,7 +9624,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>739</v>
       </c>
@@ -9654,7 +9662,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>745</v>
       </c>
@@ -9698,7 +9706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>706</v>
       </c>
@@ -9777,7 +9785,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>741</v>
       </c>
@@ -9815,7 +9823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>719</v>
       </c>
@@ -9853,7 +9861,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>765</v>
       </c>
@@ -10014,7 +10022,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>790</v>
       </c>
@@ -10058,7 +10066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>773</v>
       </c>
@@ -10137,7 +10145,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>722</v>
       </c>
@@ -10175,7 +10183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>766</v>
       </c>
@@ -10213,7 +10221,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>766</v>
       </c>
@@ -10251,7 +10259,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>766</v>
       </c>
@@ -10289,7 +10297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>766</v>
       </c>
@@ -10327,7 +10335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>782</v>
       </c>
@@ -10365,7 +10373,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>701</v>
       </c>
@@ -10403,7 +10411,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>727</v>
       </c>
@@ -10441,7 +10449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>727</v>
       </c>
@@ -10479,7 +10487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>695</v>
       </c>
@@ -10602,7 +10610,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>794</v>
       </c>
@@ -10640,7 +10648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>749</v>
       </c>
@@ -10684,7 +10692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>794</v>
       </c>
@@ -10722,7 +10730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>794</v>
       </c>
@@ -10760,7 +10768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>749</v>
       </c>
@@ -10804,7 +10812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>721</v>
       </c>
@@ -10842,7 +10850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>759</v>
       </c>
@@ -10883,7 +10891,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>774</v>
       </c>
@@ -10921,7 +10929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>774</v>
       </c>
@@ -10959,7 +10967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>760</v>
       </c>
@@ -10997,7 +11005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>785</v>
       </c>
@@ -11035,7 +11043,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>774</v>
       </c>
@@ -11073,7 +11081,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>774</v>
       </c>
@@ -11111,7 +11119,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>785</v>
       </c>
@@ -11149,7 +11157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>740</v>
       </c>
@@ -11187,7 +11195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>785</v>
       </c>
@@ -11225,7 +11233,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>785</v>
       </c>
@@ -11263,7 +11271,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>697</v>
       </c>
@@ -11301,7 +11309,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>737</v>
       </c>
@@ -11339,7 +11347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>755</v>
       </c>
@@ -11377,7 +11385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>737</v>
       </c>
@@ -11415,7 +11423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>738</v>
       </c>
@@ -11453,7 +11461,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>785</v>
       </c>
@@ -11491,7 +11499,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>764</v>
       </c>
@@ -11526,7 +11534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>785</v>
       </c>
@@ -11564,7 +11572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>779</v>
       </c>
@@ -11602,7 +11610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>698</v>
       </c>
@@ -11640,7 +11648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>785</v>
       </c>
@@ -11678,7 +11686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>794</v>
       </c>
@@ -11716,7 +11724,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>785</v>
       </c>
@@ -11754,7 +11762,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>764</v>
       </c>
@@ -11789,7 +11797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>764</v>
       </c>
@@ -11824,7 +11832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>785</v>
       </c>
@@ -11862,7 +11870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>725</v>
       </c>
@@ -11900,7 +11908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>785</v>
       </c>
@@ -11938,7 +11946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>711</v>
       </c>
@@ -11976,7 +11984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>785</v>
       </c>
@@ -12014,7 +12022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>785</v>
       </c>
@@ -12052,7 +12060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>794</v>
       </c>
@@ -12090,7 +12098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>794</v>
       </c>
@@ -12128,7 +12136,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>794</v>
       </c>
@@ -12166,7 +12174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>787</v>
       </c>
@@ -12204,7 +12212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>787</v>
       </c>
@@ -12242,7 +12250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>708</v>
       </c>
@@ -12280,7 +12288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>728</v>
       </c>
@@ -12318,7 +12326,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>794</v>
       </c>
@@ -12356,7 +12364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>789</v>
       </c>
@@ -12394,7 +12402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>794</v>
       </c>
@@ -12432,7 +12440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>742</v>
       </c>
@@ -12470,7 +12478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>754</v>
       </c>
@@ -12508,7 +12516,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>747</v>
       </c>
@@ -12546,7 +12554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>786</v>
       </c>
@@ -12584,7 +12592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>786</v>
       </c>
@@ -12622,7 +12630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>786</v>
       </c>
@@ -12660,7 +12668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>786</v>
       </c>
@@ -12698,7 +12706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>793</v>
       </c>
@@ -12736,7 +12744,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>793</v>
       </c>
@@ -12774,7 +12782,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>704</v>
       </c>
@@ -12809,7 +12817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>704</v>
       </c>
@@ -12844,7 +12852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>704</v>
       </c>
@@ -12879,7 +12887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>704</v>
       </c>
@@ -12914,7 +12922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>704</v>
       </c>
@@ -12949,7 +12957,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>704</v>
       </c>
@@ -12984,7 +12992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>706</v>
       </c>
@@ -13019,7 +13027,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>706</v>
       </c>
@@ -13054,7 +13062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>733</v>
       </c>
@@ -13089,7 +13097,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>733</v>
       </c>
@@ -13124,7 +13132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>733</v>
       </c>
@@ -13159,7 +13167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>733</v>
       </c>
@@ -13194,7 +13202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>733</v>
       </c>
@@ -13229,7 +13237,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>735</v>
       </c>
@@ -13264,7 +13272,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>761</v>
       </c>
@@ -13299,7 +13307,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>761</v>
       </c>
@@ -13334,7 +13342,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>761</v>
       </c>
@@ -13369,7 +13377,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>761</v>
       </c>
@@ -13404,7 +13412,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>761</v>
       </c>
@@ -13439,7 +13447,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>761</v>
       </c>
@@ -13474,7 +13482,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>761</v>
       </c>
@@ -13509,7 +13517,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>761</v>
       </c>
@@ -13544,7 +13552,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>761</v>
       </c>
@@ -13579,7 +13587,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>761</v>
       </c>
@@ -13614,7 +13622,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>764</v>
       </c>
@@ -13649,7 +13657,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>764</v>
       </c>
@@ -13684,7 +13692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>764</v>
       </c>
@@ -13719,7 +13727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>771</v>
       </c>
@@ -13766,191 +13774,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A158BE-8E27-F949-92B0-C8998D3EF02B}">
-  <dimension ref="A2:A36"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>726</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1">
+        <f>COUNTIF($A:$A,C1)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF($A:$A,C2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>772</v>
+      <c r="A17" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>783</v>
+      <c r="A18" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>777</v>
+      <c r="A19" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>757</v>
+      <c r="A20" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>731</v>
+      <c r="A21" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>723</v>
+      <c r="A22" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>746</v>
+      <c r="A23" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>700</v>
+      <c r="A24" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>761</v>
+      <c r="A25" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>716</v>
+      <c r="A26" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>770</v>
+      <c r="A27" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>744</v>
+      <c r="A28" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>782</v>
+      <c r="A29" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>780</v>
+      <c r="A30" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>788</v>
+      <c r="A31" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>742</v>
+      <c r="A32" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>775</v>
+      <c r="A33" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>759</v>
+      <c r="A34" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>749</v>
+      <c r="A35" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>766</v>
+      <c r="A36" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -15219,7 +15349,7 @@
       <c r="D60" t="s">
         <v>876</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="7">
         <v>7.99999999999999E-10</v>
       </c>
       <c r="F60">
@@ -16080,7 +16210,7 @@
       <c r="D101" t="s">
         <v>876</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="7">
         <v>1.5359681991790199E-6</v>
       </c>
       <c r="F101">

--- a/biological studies.xlsx
+++ b/biological studies.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiaochsner/Documents/Thesis/branch-lengths-paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE47CA-5647-9B40-8BAA-2CF97F088C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526DF986-307D-9346-8FA0-BC352324AEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{B5FD0977-0991-D648-A373-806D6CB44D67}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{B5FD0977-0991-D648-A373-806D6CB44D67}"/>
   </bookViews>
   <sheets>
     <sheet name="scraped_dryad" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="986">
   <si>
     <t>dyriad_link</t>
   </si>
@@ -2684,13 +2685,340 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>No ultrametric trees</t>
+  </si>
+  <si>
+    <r>
+      <t>find -mindepth 1 -maxdepth 1 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF0C0D0E"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0C0D0E"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> d -print0</t>
+    </r>
+  </si>
+  <si>
+    <t>accelerated_brain_shape_evolut_coraciiform_posterior.trees</t>
+  </si>
+  <si>
+    <t>data_from_bayesian_divergence__ariidae.trees</t>
+  </si>
+  <si>
+    <t>data_from_bayesian_divergence__eciton_concatenated.trees</t>
+  </si>
+  <si>
+    <t>data_from_bayesian_divergence__eciton.trees</t>
+  </si>
+  <si>
+    <t>data_from_cryptic_diversity_in_StarBEASTLog.species.trees</t>
+  </si>
+  <si>
+    <t>data_from_demography_or_select_4Pmac_wZiphiidae_Kbrev_200715_concat_modsites_100M.trees</t>
+  </si>
+  <si>
+    <t>data_from_demography_or_select_All_Pmac_Unique_hap_seqs_strict_100M.trees</t>
+  </si>
+  <si>
+    <t>data_from_demography_or_select_Atlpma_mito_27Feb2017.trees</t>
+  </si>
+  <si>
+    <t>data_from_demography_or_select_Pac_pma_mito_20Jan2017.trees</t>
+  </si>
+  <si>
+    <t>data_from_demography_or_select_skyline_combined_trees_21Jan2017.trees</t>
+  </si>
+  <si>
+    <t>data_from_diversity_and_dispar_Model12_1000.trees</t>
+  </si>
+  <si>
+    <t>data_from_environment_predicts_5000_Posterior.trees</t>
+  </si>
+  <si>
+    <t>data_from_estimating_the_tempo_species_tree_posterior.species.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_FBDl_ageRange_combined_extant.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_FBDl_combined_extant.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_FBDs_ageRange_combined_extant.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_FBDs_combined_extant.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDbl_combined.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDbs_combined.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDnl_combined.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDns_combined.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDul_combined.trees</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDus_combined.trees</t>
+  </si>
+  <si>
+    <t>data_from_historical_reconstru_TreeFernsBeast.trees</t>
+  </si>
+  <si>
+    <t>data_from_how_mountains_shape__LiolaemidaeDec17Combined_green.trees</t>
+  </si>
+  <si>
+    <t>data_from_inferring_speciation_history_in_the_andes_ND2_forBEAST_3.10.15.trees</t>
+  </si>
+  <si>
+    <t>data_from_mitogenomic_phylogen_cds.sasaki.strict.trees</t>
+  </si>
+  <si>
+    <t>data_from_mitogenomic_phylogen_mito.sasaki.strict.trees</t>
+  </si>
+  <si>
+    <t>data_from_multilocus_phylogene_StarBEAST_posterior.species.trees</t>
+  </si>
+  <si>
+    <t>data_from_natural_hybridizatio_DatingAnalysis1_run1of4.trees</t>
+  </si>
+  <si>
+    <t>data_from_natural_hybridizatio_DatingAnalysis2_run1of4.trees</t>
+  </si>
+  <si>
+    <t>data_from_on_the_biogeography__Centipeda_pruned_species.trees</t>
+  </si>
+  <si>
+    <t>data_from_phylogenomic_relatio_snapp.trees</t>
+  </si>
+  <si>
+    <t>data_from_pollinator_mediated__Clarkia.trees</t>
+  </si>
+  <si>
+    <t>data_from_pollinator_mediated__Limnanthes.trees</t>
+  </si>
+  <si>
+    <t>data_from_pollinator_mediated__mimulus.trees</t>
+  </si>
+  <si>
+    <t>data_from_pre‚äêadaptation_and_Supplementary_file_2_BEAST_raw_set_of_posterior_trees.trees</t>
+  </si>
+  <si>
+    <t>data_from_repeated_invasions_i_BEAST_Output.trees</t>
+  </si>
+  <si>
+    <t>data_from_signatures_of_north_eastern_expansion_and_multiple_refugia_genomic_phylogeography_of_the_pine_barrens_treefrog,_hyla_andersonii_(anura_hylidae)_Warwick_BEAST_output.trees</t>
+  </si>
+  <si>
+    <t>data_from_signatures_of_north__Warwick_BEAST_output.trees</t>
+  </si>
+  <si>
+    <t>data_from_the_little_fishes_th_percidae_constrained_-_combined_posterior_distribution.trees</t>
+  </si>
+  <si>
+    <t>data_from_the_little_fishes_th_percidae_unconstrained_-_combined_posterior_distribution.trees</t>
+  </si>
+  <si>
+    <t>data_from_whole_plastome_seque_pop_to_manihot_4.trees</t>
+  </si>
+  <si>
+    <t>data_from_why_close_relatives__c200_EXPO2_1000.trees</t>
+  </si>
+  <si>
+    <t>data_from_why_close_relatives__new_CARD2014_random_1000.trees</t>
+  </si>
+  <si>
+    <t>environmental_correlates_of_ph_Liol_posterior.trees</t>
+  </si>
+  <si>
+    <t>evolutionary_history_and_eco_c_BEAST.trees</t>
+  </si>
+  <si>
+    <t>fejervarya_mtdna_phylogenetics_iskandari_combined.trees</t>
+  </si>
+  <si>
+    <t>fejervarya_mtdna_phylogenetics_verruculosa_combined.trees</t>
+  </si>
+  <si>
+    <t>phylogeny_and_time_scale_of_di_centSPno_cal_burn.trees</t>
+  </si>
+  <si>
+    <t>the_'evil_tribe'_spreads_acros_Concatenated_all_Beast_Output.trees</t>
+  </si>
+  <si>
+    <t>the_importance_of_environmenta_Epithelantha.trees</t>
+  </si>
+  <si>
+    <t>variation_in_eye_abundance_amo_Scallop_posterior_trees.trees</t>
+  </si>
+  <si>
+    <t>accelerated_brain_shape_evolut_coraciiform_posterior_stats.log</t>
+  </si>
+  <si>
+    <t>archosauromorpha_PASTIS_386_10000.newick_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_bayesian_divergence__ariidae_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_bayesian_divergence__eciton_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_cryptic_diversity_in_StarBEASTLog.species_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_demography_or_select_4Pmac_wZiphiidae_Kbrev_200715_concat_modsites_100M_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_diversity_and_dispar_Model12_1000_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_environment_predicts_5000_Posterior_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_estimating_the_tempo_species_tree_posterior.species_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_FBDl_ageRange_combined_extant_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_FBDl_combined_extant_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_FBDs_ageRange_combined_extant_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_FBDs_combined_extant_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDbl_combined_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDbs_combined_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDnl_combined_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDns_combined_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDul_combined_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_fossils_matter_impro_NDus_combined_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_genome_wide_snp_data_Rad_orca_subsample1_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_geographic_and_tempo_Dataset_S5_SNAPPoutput_AS7_42SNP_113indiv_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_historical_reconstru_TreeFernsBeast_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_how_mountains_shape__LiolaemidaeDec17Combined_green_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_mitogenomic_phylogen_cds.sasaki.strict_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_mitogenomic_phylogen_mito.sasaki.strict_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_multilocus_phylogene_StarBEAST_posterior.species_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_natural_hybridizatio_DatingAnalysis1_run1of4_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_natural_hybridizatio_DatingAnalysis2_run1of4_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_on_the_biogeography__Centipeda_pruned_species_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_phylogenomic_relatio_snapp_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_pollinator_mediated__Clarkia_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_pollinator_mediated__Limnanthes_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_pollinator_mediated__mimulus_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_pre‚äêadaptation_and_Supplementary_file_2_BEAST_raw_set_of_posterior_trees_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_recent_extinctions_d_Rojas et al 2016_posterior_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_signatures_of_north__Warwick_BEAST_output_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_signatures_of_north_eastern_expansion_and_multiple_refugia_genomic_phylogeography_of_the_pine_barrens_treefrog,_hyla_andersonii_(anura_hylidae)_Warwick_BEAST_output_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_the_little_fishes_th_percidae_constrained_-_combined_posterior_distribution_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_the_little_fishes_th_percidae_unconstrained_-_combined_posterior_distribution_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_whole_plastome_seque_pop_to_manihot_4_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_why_close_relatives__c200_EXPO2_1000_stats.log</t>
+  </si>
+  <si>
+    <t>data_from_why_close_relatives__new_CARD2014_random_1000_stats.log</t>
+  </si>
+  <si>
+    <t>environmental_correlates_of_ph_Liol_posterior_stats.log</t>
+  </si>
+  <si>
+    <t>evolutionary_history_and_eco_c_BEAST_stats.log</t>
+  </si>
+  <si>
+    <t>fejervarya_mtdna_phylogenetics_iskandari_combined_stats.log</t>
+  </si>
+  <si>
+    <t>fejervarya_mtdna_phylogenetics_verruculosa_combined_stats.log</t>
+  </si>
+  <si>
+    <t>phylogeny_and_time_scale_of_di_centSPno_cal_burn_stats.log</t>
+  </si>
+  <si>
+    <t>the_importance_of_environmenta_Epithelantha_stats.log</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2834,6 +3162,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0C0D0E"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0C0D0E"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3220,7 +3565,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3230,6 +3575,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3303,7 +3651,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F27A8FA5-63B5-214E-B484-257B20E3C8E4}" name="Tabelle1" displayName="Tabelle1" ref="A1:M259" totalsRowShown="0">
-  <autoFilter ref="A1:M259" xr:uid="{F27A8FA5-63B5-214E-B484-257B20E3C8E4}"/>
+  <autoFilter ref="A1:M259" xr:uid="{F27A8FA5-63B5-214E-B484-257B20E3C8E4}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{6E760ADB-9E16-0144-81A5-C36EFFCA53BE}" name="dyriad_link"/>
     <tableColumn id="2" xr3:uid="{ACC93575-3A6F-C949-8243-9B8893BC5736}" name="dataset_name"/>
@@ -3648,11 +4002,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32FE525-9392-C64B-BB12-6C5F047EE504}">
   <dimension ref="A1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -3664,7 +4018,7 @@
     <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3705,7 +4059,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>732</v>
       </c>
@@ -3746,7 +4100,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>720</v>
       </c>
@@ -3787,7 +4141,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" t="s">
         <v>720</v>
       </c>
@@ -3825,7 +4179,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" t="s">
         <v>720</v>
       </c>
@@ -3863,7 +4217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" t="s">
         <v>696</v>
       </c>
@@ -3907,7 +4261,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" t="s">
         <v>696</v>
       </c>
@@ -3945,7 +4299,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" t="s">
         <v>696</v>
       </c>
@@ -3983,7 +4337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" t="s">
         <v>696</v>
       </c>
@@ -4021,7 +4375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -4041,7 +4395,10 @@
         <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H10" t="s">
+        <v>883</v>
       </c>
       <c r="I10" t="s">
         <v>817</v>
@@ -4062,7 +4419,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>751</v>
       </c>
@@ -4103,7 +4460,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>717</v>
       </c>
@@ -4144,7 +4501,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" t="s">
         <v>762</v>
       </c>
@@ -4182,7 +4539,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" t="s">
         <v>762</v>
       </c>
@@ -4226,7 +4583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" t="s">
         <v>762</v>
       </c>
@@ -4264,7 +4621,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" t="s">
         <v>762</v>
       </c>
@@ -4302,7 +4659,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" t="s">
         <v>762</v>
       </c>
@@ -4340,7 +4697,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" t="s">
         <v>762</v>
       </c>
@@ -4378,7 +4735,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" t="s">
         <v>762</v>
       </c>
@@ -4416,7 +4773,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" t="s">
         <v>762</v>
       </c>
@@ -4454,7 +4811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" t="s">
         <v>762</v>
       </c>
@@ -4492,7 +4849,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" t="s">
         <v>762</v>
       </c>
@@ -4530,7 +4887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" t="s">
         <v>774</v>
       </c>
@@ -4574,7 +4931,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" t="s">
         <v>774</v>
       </c>
@@ -4612,7 +4969,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" t="s">
         <v>781</v>
       </c>
@@ -4656,7 +5013,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>706</v>
       </c>
@@ -4697,7 +5054,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" t="s">
         <v>753</v>
       </c>
@@ -4732,7 +5089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" t="s">
         <v>781</v>
       </c>
@@ -4776,7 +5133,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" t="s">
         <v>696</v>
       </c>
@@ -4820,7 +5177,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" t="s">
         <v>696</v>
       </c>
@@ -4858,7 +5215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>760</v>
       </c>
@@ -4899,7 +5256,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" t="s">
         <v>781</v>
       </c>
@@ -4943,7 +5300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>776</v>
       </c>
@@ -4984,7 +5341,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>735</v>
       </c>
@@ -5025,7 +5382,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>727</v>
       </c>
@@ -5066,7 +5423,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>727</v>
       </c>
@@ -5107,7 +5464,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" t="s">
         <v>733</v>
       </c>
@@ -5145,7 +5502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" t="s">
         <v>733</v>
       </c>
@@ -5183,7 +5540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" t="s">
         <v>733</v>
       </c>
@@ -5221,7 +5578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40" t="s">
         <v>733</v>
       </c>
@@ -5259,7 +5616,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>792</v>
       </c>
@@ -5300,7 +5657,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" t="s">
         <v>781</v>
       </c>
@@ -5344,7 +5701,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>792</v>
       </c>
@@ -5385,7 +5742,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" t="s">
         <v>743</v>
       </c>
@@ -5429,7 +5786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" t="s">
         <v>774</v>
       </c>
@@ -5473,7 +5830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" t="s">
         <v>781</v>
       </c>
@@ -5517,7 +5874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" t="s">
         <v>713</v>
       </c>
@@ -5555,7 +5912,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" t="s">
         <v>713</v>
       </c>
@@ -5593,7 +5950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" t="s">
         <v>713</v>
       </c>
@@ -5631,7 +5988,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" t="s">
         <v>774</v>
       </c>
@@ -5669,7 +6026,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>784</v>
       </c>
@@ -5711,7 +6068,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" t="s">
         <v>783</v>
       </c>
@@ -5749,7 +6106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" t="s">
         <v>712</v>
       </c>
@@ -5793,7 +6150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" t="s">
         <v>712</v>
       </c>
@@ -5831,7 +6188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" t="s">
         <v>752</v>
       </c>
@@ -5875,7 +6232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>778</v>
       </c>
@@ -5916,7 +6273,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" t="s">
         <v>781</v>
       </c>
@@ -5960,7 +6317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58" t="s">
         <v>699</v>
       </c>
@@ -5998,7 +6355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>756</v>
       </c>
@@ -6039,7 +6396,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" t="s">
         <v>699</v>
       </c>
@@ -6077,7 +6434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>756</v>
       </c>
@@ -6118,7 +6475,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" t="s">
         <v>763</v>
       </c>
@@ -6138,7 +6495,10 @@
         <v>453</v>
       </c>
       <c r="G62" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H62" t="s">
+        <v>883</v>
       </c>
       <c r="I62" t="s">
         <v>851</v>
@@ -6159,7 +6519,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" t="s">
         <v>737</v>
       </c>
@@ -6179,7 +6539,10 @@
         <v>271</v>
       </c>
       <c r="G63" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H63" t="s">
+        <v>883</v>
       </c>
       <c r="I63" t="s">
         <v>874</v>
@@ -6200,7 +6563,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" t="s">
         <v>699</v>
       </c>
@@ -6238,7 +6601,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" t="s">
         <v>699</v>
       </c>
@@ -6276,7 +6639,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" t="s">
         <v>730</v>
       </c>
@@ -6296,7 +6659,10 @@
         <v>226</v>
       </c>
       <c r="G66" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H66" t="s">
+        <v>883</v>
       </c>
       <c r="I66" t="s">
         <v>828</v>
@@ -6317,7 +6683,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="17">
       <c r="A67" t="s">
         <v>756</v>
       </c>
@@ -6333,8 +6699,8 @@
       <c r="E67">
         <v>58896562</v>
       </c>
-      <c r="F67" t="s">
-        <v>363</v>
+      <c r="F67" s="10" t="s">
+        <v>884</v>
       </c>
       <c r="G67" t="s">
         <v>798</v>
@@ -6358,7 +6724,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" t="s">
         <v>729</v>
       </c>
@@ -6378,7 +6744,10 @@
         <v>220</v>
       </c>
       <c r="G68" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H68" t="s">
+        <v>883</v>
       </c>
       <c r="I68" t="s">
         <v>827</v>
@@ -6399,7 +6768,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>768</v>
       </c>
@@ -6440,7 +6809,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>726</v>
       </c>
@@ -6481,7 +6850,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" t="s">
         <v>750</v>
       </c>
@@ -6501,7 +6870,10 @@
         <v>335</v>
       </c>
       <c r="G71" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H71" t="s">
+        <v>883</v>
       </c>
       <c r="I71" t="s">
         <v>862</v>
@@ -6522,7 +6894,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" t="s">
         <v>729</v>
       </c>
@@ -6542,7 +6914,10 @@
         <v>220</v>
       </c>
       <c r="G72" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H72" t="s">
+        <v>883</v>
       </c>
       <c r="I72" t="s">
         <v>826</v>
@@ -6563,7 +6938,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" t="s">
         <v>696</v>
       </c>
@@ -6607,7 +6982,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" t="s">
         <v>769</v>
       </c>
@@ -6627,7 +7002,10 @@
         <v>492</v>
       </c>
       <c r="G74" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H74" t="s">
+        <v>883</v>
       </c>
       <c r="I74" t="s">
         <v>841</v>
@@ -6648,7 +7026,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" t="s">
         <v>750</v>
       </c>
@@ -6668,7 +7046,10 @@
         <v>335</v>
       </c>
       <c r="G75" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H75" t="s">
+        <v>883</v>
       </c>
       <c r="I75" t="s">
         <v>863</v>
@@ -6689,7 +7070,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>772</v>
       </c>
@@ -6730,7 +7111,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" t="s">
         <v>731</v>
       </c>
@@ -6750,7 +7131,10 @@
         <v>230</v>
       </c>
       <c r="G77" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H77" t="s">
+        <v>883</v>
       </c>
       <c r="I77" t="s">
         <v>829</v>
@@ -6771,7 +7155,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" t="s">
         <v>707</v>
       </c>
@@ -6809,7 +7193,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>783</v>
       </c>
@@ -6850,7 +7234,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>783</v>
       </c>
@@ -6891,7 +7275,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>777</v>
       </c>
@@ -6932,7 +7316,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>777</v>
       </c>
@@ -6973,7 +7357,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" t="s">
         <v>714</v>
       </c>
@@ -7011,7 +7395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" t="s">
         <v>705</v>
       </c>
@@ -7049,7 +7433,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>756</v>
       </c>
@@ -7090,7 +7474,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" t="s">
         <v>769</v>
       </c>
@@ -7110,7 +7494,10 @@
         <v>492</v>
       </c>
       <c r="G86" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H86" t="s">
+        <v>883</v>
       </c>
       <c r="I86" t="s">
         <v>855</v>
@@ -7131,7 +7518,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>757</v>
       </c>
@@ -7172,7 +7559,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>757</v>
       </c>
@@ -7213,7 +7600,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" t="s">
         <v>769</v>
       </c>
@@ -7233,7 +7620,10 @@
         <v>492</v>
       </c>
       <c r="G89" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H89" t="s">
+        <v>883</v>
       </c>
       <c r="I89" t="s">
         <v>856</v>
@@ -7254,7 +7644,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>731</v>
       </c>
@@ -7295,7 +7685,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>723</v>
       </c>
@@ -7336,7 +7726,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" t="s">
         <v>715</v>
       </c>
@@ -7374,7 +7764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>746</v>
       </c>
@@ -7415,7 +7805,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" t="s">
         <v>724</v>
       </c>
@@ -7450,7 +7840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" t="s">
         <v>724</v>
       </c>
@@ -7485,7 +7875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" t="s">
         <v>710</v>
       </c>
@@ -7523,7 +7913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1">
       <c r="A97" t="s">
         <v>769</v>
       </c>
@@ -7543,7 +7933,10 @@
         <v>492</v>
       </c>
       <c r="G97" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H97" t="s">
+        <v>883</v>
       </c>
       <c r="I97" t="s">
         <v>841</v>
@@ -7564,7 +7957,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" t="s">
         <v>709</v>
       </c>
@@ -7584,7 +7977,10 @@
         <v>114</v>
       </c>
       <c r="G98" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H98" t="s">
+        <v>883</v>
       </c>
       <c r="I98" t="s">
         <v>811</v>
@@ -7605,7 +8001,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" t="s">
         <v>704</v>
       </c>
@@ -7643,7 +8039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>700</v>
       </c>
@@ -7684,7 +8080,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" t="s">
         <v>769</v>
       </c>
@@ -7704,7 +8100,10 @@
         <v>492</v>
       </c>
       <c r="G101" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H101" t="s">
+        <v>883</v>
       </c>
       <c r="I101" t="s">
         <v>856</v>
@@ -7725,7 +8124,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>761</v>
       </c>
@@ -7766,7 +8165,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>761</v>
       </c>
@@ -7807,7 +8206,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>761</v>
       </c>
@@ -7848,7 +8247,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>761</v>
       </c>
@@ -7889,7 +8288,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" t="s">
         <v>753</v>
       </c>
@@ -7924,7 +8323,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>761</v>
       </c>
@@ -7965,7 +8364,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>761</v>
       </c>
@@ -8006,7 +8405,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" hidden="1">
       <c r="A109" t="s">
         <v>791</v>
       </c>
@@ -8050,7 +8449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" hidden="1">
       <c r="A110" t="s">
         <v>700</v>
       </c>
@@ -8088,7 +8487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111" t="s">
         <v>700</v>
       </c>
@@ -8126,7 +8525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>716</v>
       </c>
@@ -8167,7 +8566,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113" t="s">
         <v>769</v>
       </c>
@@ -8187,7 +8586,10 @@
         <v>492</v>
       </c>
       <c r="G113" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H113" t="s">
+        <v>883</v>
       </c>
       <c r="I113" t="s">
         <v>855</v>
@@ -8208,7 +8610,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>770</v>
       </c>
@@ -8249,7 +8651,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115" t="s">
         <v>769</v>
       </c>
@@ -8269,7 +8671,10 @@
         <v>492</v>
       </c>
       <c r="G115" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H115" t="s">
+        <v>883</v>
       </c>
       <c r="I115" t="s">
         <v>856</v>
@@ -8290,7 +8695,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>700</v>
       </c>
@@ -8331,7 +8736,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>757</v>
       </c>
@@ -8372,7 +8777,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" t="s">
         <v>741</v>
       </c>
@@ -8410,7 +8815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" t="s">
         <v>767</v>
       </c>
@@ -8430,7 +8835,10 @@
         <v>484</v>
       </c>
       <c r="G119" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H119" t="s">
+        <v>883</v>
       </c>
       <c r="I119" t="s">
         <v>853</v>
@@ -8451,7 +8859,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" t="s">
         <v>704</v>
       </c>
@@ -8489,7 +8897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>756</v>
       </c>
@@ -8530,7 +8938,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122" t="s">
         <v>702</v>
       </c>
@@ -8568,7 +8976,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" t="s">
         <v>748</v>
       </c>
@@ -8588,7 +8996,10 @@
         <v>323</v>
       </c>
       <c r="G123" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H123" t="s">
+        <v>883</v>
       </c>
       <c r="I123" t="s">
         <v>872</v>
@@ -8609,7 +9020,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124" t="s">
         <v>704</v>
       </c>
@@ -8647,7 +9058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125" t="s">
         <v>769</v>
       </c>
@@ -8667,7 +9078,10 @@
         <v>492</v>
       </c>
       <c r="G125" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H125" t="s">
+        <v>883</v>
       </c>
       <c r="I125" t="s">
         <v>856</v>
@@ -8688,7 +9102,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>761</v>
       </c>
@@ -8729,7 +9143,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>761</v>
       </c>
@@ -8770,7 +9184,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>761</v>
       </c>
@@ -8811,7 +9225,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>761</v>
       </c>
@@ -8852,7 +9266,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" t="s">
         <v>724</v>
       </c>
@@ -8887,7 +9301,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131" t="s">
         <v>700</v>
       </c>
@@ -8925,7 +9339,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" t="s">
         <v>700</v>
       </c>
@@ -8963,7 +9377,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" hidden="1">
       <c r="A133" t="s">
         <v>696</v>
       </c>
@@ -9001,7 +9415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" hidden="1">
       <c r="A134" t="s">
         <v>710</v>
       </c>
@@ -9039,7 +9453,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" t="s">
         <v>696</v>
       </c>
@@ -9077,7 +9491,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" t="s">
         <v>696</v>
       </c>
@@ -9115,7 +9529,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" hidden="1">
       <c r="A137" t="s">
         <v>697</v>
       </c>
@@ -9153,7 +9567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138" t="s">
         <v>734</v>
       </c>
@@ -9191,7 +9605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139" t="s">
         <v>736</v>
       </c>
@@ -9229,7 +9643,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>744</v>
       </c>
@@ -9270,7 +9684,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" t="s">
         <v>703</v>
       </c>
@@ -9308,7 +9722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>782</v>
       </c>
@@ -9349,7 +9763,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143" t="s">
         <v>718</v>
       </c>
@@ -9387,7 +9801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" t="s">
         <v>758</v>
       </c>
@@ -9425,7 +9839,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" hidden="1">
       <c r="A145" t="s">
         <v>718</v>
       </c>
@@ -9463,7 +9877,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>770</v>
       </c>
@@ -9504,7 +9918,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147" t="s">
         <v>771</v>
       </c>
@@ -9524,7 +9938,10 @@
         <v>518</v>
       </c>
       <c r="G147" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H147" t="s">
+        <v>883</v>
       </c>
       <c r="I147" t="s">
         <v>860</v>
@@ -9545,7 +9962,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" hidden="1">
       <c r="A148" t="s">
         <v>718</v>
       </c>
@@ -9583,7 +10000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>770</v>
       </c>
@@ -9624,7 +10041,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" t="s">
         <v>739</v>
       </c>
@@ -9662,7 +10079,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151" t="s">
         <v>745</v>
       </c>
@@ -9706,7 +10123,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" t="s">
         <v>706</v>
       </c>
@@ -9744,7 +10161,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>780</v>
       </c>
@@ -9785,7 +10202,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154" t="s">
         <v>741</v>
       </c>
@@ -9823,7 +10240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" hidden="1">
       <c r="A155" t="s">
         <v>719</v>
       </c>
@@ -9861,7 +10278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156" t="s">
         <v>765</v>
       </c>
@@ -9899,7 +10316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>788</v>
       </c>
@@ -9940,7 +10357,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158" t="s">
         <v>742</v>
       </c>
@@ -9960,7 +10377,10 @@
         <v>297</v>
       </c>
       <c r="G158" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H158" t="s">
+        <v>804</v>
       </c>
       <c r="I158" t="s">
         <v>872</v>
@@ -9981,7 +10401,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" t="s">
         <v>775</v>
       </c>
@@ -10001,7 +10421,10 @@
         <v>549</v>
       </c>
       <c r="G159" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H159" t="s">
+        <v>804</v>
       </c>
       <c r="I159" t="s">
         <v>837</v>
@@ -10022,7 +10445,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160" t="s">
         <v>790</v>
       </c>
@@ -10066,7 +10489,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" t="s">
         <v>773</v>
       </c>
@@ -10104,7 +10527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" t="s">
         <v>759</v>
       </c>
@@ -10124,7 +10547,10 @@
         <v>387</v>
       </c>
       <c r="G162" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H162" t="s">
+        <v>804</v>
       </c>
       <c r="I162" t="s">
         <v>868</v>
@@ -10145,7 +10571,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" t="s">
         <v>722</v>
       </c>
@@ -10183,7 +10609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164" t="s">
         <v>766</v>
       </c>
@@ -10221,7 +10647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" t="s">
         <v>766</v>
       </c>
@@ -10259,7 +10685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166" t="s">
         <v>766</v>
       </c>
@@ -10297,7 +10723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" hidden="1">
       <c r="A167" t="s">
         <v>766</v>
       </c>
@@ -10335,7 +10761,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" t="s">
         <v>782</v>
       </c>
@@ -10373,7 +10799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169" t="s">
         <v>701</v>
       </c>
@@ -10411,7 +10837,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" t="s">
         <v>727</v>
       </c>
@@ -10449,7 +10875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" t="s">
         <v>727</v>
       </c>
@@ -10487,7 +10913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172" t="s">
         <v>695</v>
       </c>
@@ -10525,7 +10951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173" t="s">
         <v>749</v>
       </c>
@@ -10569,7 +10995,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" t="s">
         <v>766</v>
       </c>
@@ -10589,7 +11015,10 @@
         <v>472</v>
       </c>
       <c r="G174" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H174" t="s">
+        <v>804</v>
       </c>
       <c r="I174" t="s">
         <v>852</v>
@@ -10610,7 +11039,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" t="s">
         <v>794</v>
       </c>
@@ -10648,7 +11077,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" t="s">
         <v>749</v>
       </c>
@@ -10692,7 +11121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" t="s">
         <v>794</v>
       </c>
@@ -10730,7 +11159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" t="s">
         <v>794</v>
       </c>
@@ -10768,7 +11197,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" t="s">
         <v>749</v>
       </c>
@@ -10812,7 +11241,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" t="s">
         <v>721</v>
       </c>
@@ -10850,7 +11279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" t="s">
         <v>759</v>
       </c>
@@ -10870,7 +11299,10 @@
         <v>387</v>
       </c>
       <c r="G181" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H181" t="s">
+        <v>883</v>
       </c>
       <c r="I181" t="s">
         <v>868</v>
@@ -10891,7 +11323,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" t="s">
         <v>774</v>
       </c>
@@ -10929,7 +11361,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" t="s">
         <v>774</v>
       </c>
@@ -10967,7 +11399,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" t="s">
         <v>760</v>
       </c>
@@ -11005,7 +11437,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" t="s">
         <v>785</v>
       </c>
@@ -11043,7 +11475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" t="s">
         <v>774</v>
       </c>
@@ -11081,7 +11513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187" t="s">
         <v>774</v>
       </c>
@@ -11119,7 +11551,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188" t="s">
         <v>785</v>
       </c>
@@ -11157,7 +11589,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189" t="s">
         <v>740</v>
       </c>
@@ -11195,7 +11627,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190" t="s">
         <v>785</v>
       </c>
@@ -11233,7 +11665,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" t="s">
         <v>785</v>
       </c>
@@ -11271,7 +11703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" t="s">
         <v>697</v>
       </c>
@@ -11309,7 +11741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" t="s">
         <v>737</v>
       </c>
@@ -11347,7 +11779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" t="s">
         <v>755</v>
       </c>
@@ -11385,7 +11817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" t="s">
         <v>737</v>
       </c>
@@ -11423,7 +11855,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" t="s">
         <v>738</v>
       </c>
@@ -11461,7 +11893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" t="s">
         <v>785</v>
       </c>
@@ -11499,7 +11931,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" t="s">
         <v>764</v>
       </c>
@@ -11534,7 +11966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" t="s">
         <v>785</v>
       </c>
@@ -11572,7 +12004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" t="s">
         <v>779</v>
       </c>
@@ -11610,7 +12042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" t="s">
         <v>698</v>
       </c>
@@ -11648,7 +12080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" t="s">
         <v>785</v>
       </c>
@@ -11686,7 +12118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" t="s">
         <v>794</v>
       </c>
@@ -11724,7 +12156,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" t="s">
         <v>785</v>
       </c>
@@ -11762,7 +12194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" t="s">
         <v>764</v>
       </c>
@@ -11797,7 +12229,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" t="s">
         <v>764</v>
       </c>
@@ -11832,7 +12264,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" t="s">
         <v>785</v>
       </c>
@@ -11870,7 +12302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" t="s">
         <v>725</v>
       </c>
@@ -11908,7 +12340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" t="s">
         <v>785</v>
       </c>
@@ -11946,7 +12378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" t="s">
         <v>711</v>
       </c>
@@ -11984,7 +12416,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" t="s">
         <v>785</v>
       </c>
@@ -12022,7 +12454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" t="s">
         <v>785</v>
       </c>
@@ -12060,7 +12492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" t="s">
         <v>794</v>
       </c>
@@ -12098,7 +12530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" t="s">
         <v>794</v>
       </c>
@@ -12136,7 +12568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" t="s">
         <v>794</v>
       </c>
@@ -12174,7 +12606,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" t="s">
         <v>787</v>
       </c>
@@ -12212,7 +12644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" t="s">
         <v>787</v>
       </c>
@@ -12250,7 +12682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218" t="s">
         <v>708</v>
       </c>
@@ -12288,7 +12720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" t="s">
         <v>728</v>
       </c>
@@ -12326,7 +12758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220" t="s">
         <v>794</v>
       </c>
@@ -12364,7 +12796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221" t="s">
         <v>789</v>
       </c>
@@ -12402,7 +12834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222" t="s">
         <v>794</v>
       </c>
@@ -12440,7 +12872,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" t="s">
         <v>742</v>
       </c>
@@ -12478,7 +12910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" t="s">
         <v>754</v>
       </c>
@@ -12516,7 +12948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" t="s">
         <v>747</v>
       </c>
@@ -12554,7 +12986,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" t="s">
         <v>786</v>
       </c>
@@ -12592,7 +13024,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" t="s">
         <v>786</v>
       </c>
@@ -12630,7 +13062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" t="s">
         <v>786</v>
       </c>
@@ -12668,7 +13100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229" t="s">
         <v>786</v>
       </c>
@@ -12706,7 +13138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" t="s">
         <v>793</v>
       </c>
@@ -12744,7 +13176,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" t="s">
         <v>793</v>
       </c>
@@ -12782,7 +13214,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" t="s">
         <v>704</v>
       </c>
@@ -12817,7 +13249,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" t="s">
         <v>704</v>
       </c>
@@ -12852,7 +13284,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" t="s">
         <v>704</v>
       </c>
@@ -12887,7 +13319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" t="s">
         <v>704</v>
       </c>
@@ -12922,7 +13354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236" t="s">
         <v>704</v>
       </c>
@@ -12957,7 +13389,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" t="s">
         <v>704</v>
       </c>
@@ -12992,7 +13424,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" t="s">
         <v>706</v>
       </c>
@@ -13027,7 +13459,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239" t="s">
         <v>706</v>
       </c>
@@ -13062,7 +13494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" t="s">
         <v>733</v>
       </c>
@@ -13097,7 +13529,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" t="s">
         <v>733</v>
       </c>
@@ -13132,7 +13564,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" t="s">
         <v>733</v>
       </c>
@@ -13167,7 +13599,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" t="s">
         <v>733</v>
       </c>
@@ -13202,7 +13634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" t="s">
         <v>733</v>
       </c>
@@ -13237,7 +13669,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" t="s">
         <v>735</v>
       </c>
@@ -13272,7 +13704,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" t="s">
         <v>761</v>
       </c>
@@ -13307,7 +13739,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" t="s">
         <v>761</v>
       </c>
@@ -13342,7 +13774,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" t="s">
         <v>761</v>
       </c>
@@ -13377,7 +13809,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" t="s">
         <v>761</v>
       </c>
@@ -13412,7 +13844,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250" t="s">
         <v>761</v>
       </c>
@@ -13447,7 +13879,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251" t="s">
         <v>761</v>
       </c>
@@ -13482,7 +13914,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" t="s">
         <v>761</v>
       </c>
@@ -13517,7 +13949,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" t="s">
         <v>761</v>
       </c>
@@ -13552,7 +13984,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" t="s">
         <v>761</v>
       </c>
@@ -13587,7 +14019,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" t="s">
         <v>761</v>
       </c>
@@ -13622,7 +14054,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" t="s">
         <v>764</v>
       </c>
@@ -13657,7 +14089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257" t="s">
         <v>764</v>
       </c>
@@ -13692,7 +14124,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" t="s">
         <v>764</v>
       </c>
@@ -13727,7 +14159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259" t="s">
         <v>771</v>
       </c>
@@ -13776,13 +14208,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A158BE-8E27-F949-92B0-C8998D3EF02B}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>801</v>
       </c>
@@ -13795,7 +14227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>810</v>
       </c>
@@ -13808,272 +14240,272 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="8" t="s">
         <v>801</v>
       </c>
@@ -14088,16 +14520,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E25B0E2-29F8-0445-8835-B9C2693EE062}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -14118,7 +14550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -14139,7 +14571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>483</v>
       </c>
@@ -14160,7 +14592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -14181,7 +14613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -14202,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>552</v>
       </c>
@@ -14223,7 +14655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>667</v>
       </c>
@@ -14244,7 +14676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>664</v>
       </c>
@@ -14265,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>648</v>
       </c>
@@ -14286,7 +14718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>263</v>
       </c>
@@ -14307,7 +14739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>548</v>
       </c>
@@ -14328,7 +14760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -14349,7 +14781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>229</v>
       </c>
@@ -14370,7 +14802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>509</v>
       </c>
@@ -14391,7 +14823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>514</v>
       </c>
@@ -14412,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>512</v>
       </c>
@@ -14433,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -14454,7 +14886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>340</v>
       </c>
@@ -14475,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>562</v>
       </c>
@@ -14496,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>599</v>
       </c>
@@ -14517,7 +14949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>597</v>
       </c>
@@ -14538,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>556</v>
       </c>
@@ -14559,7 +14991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>559</v>
       </c>
@@ -14580,7 +15012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -14601,7 +15033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -14622,7 +15054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>483</v>
       </c>
@@ -14643,7 +15075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -14664,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -14685,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>552</v>
       </c>
@@ -14706,7 +15138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>667</v>
       </c>
@@ -14727,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>664</v>
       </c>
@@ -14748,7 +15180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>648</v>
       </c>
@@ -14769,7 +15201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -14790,7 +15222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>548</v>
       </c>
@@ -14811,7 +15243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>232</v>
       </c>
@@ -14832,7 +15264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>229</v>
       </c>
@@ -14853,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>509</v>
       </c>
@@ -14874,7 +15306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>514</v>
       </c>
@@ -14895,7 +15327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>512</v>
       </c>
@@ -14916,7 +15348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -14937,7 +15369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -14958,7 +15390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>562</v>
       </c>
@@ -14979,7 +15411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>599</v>
       </c>
@@ -15000,7 +15432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>597</v>
       </c>
@@ -15021,7 +15453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>556</v>
       </c>
@@ -15042,7 +15474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>559</v>
       </c>
@@ -15063,7 +15495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>334</v>
       </c>
@@ -15084,7 +15516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>337</v>
       </c>
@@ -15105,7 +15537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>377</v>
       </c>
@@ -15126,7 +15558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>379</v>
       </c>
@@ -15147,7 +15579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>374</v>
       </c>
@@ -15168,7 +15600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>365</v>
       </c>
@@ -15189,7 +15621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>367</v>
       </c>
@@ -15210,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>371</v>
       </c>
@@ -15231,7 +15663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>369</v>
       </c>
@@ -15252,7 +15684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>362</v>
       </c>
@@ -15273,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>517</v>
       </c>
@@ -15294,7 +15726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>296</v>
       </c>
@@ -15315,7 +15747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>329</v>
       </c>
@@ -15336,7 +15768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>314</v>
       </c>
@@ -15357,7 +15789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>239</v>
       </c>
@@ -15378,7 +15810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>502</v>
       </c>
@@ -15399,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>491</v>
       </c>
@@ -15420,7 +15852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>496</v>
       </c>
@@ -15441,7 +15873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>504</v>
       </c>
@@ -15462,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>498</v>
       </c>
@@ -15483,7 +15915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>494</v>
       </c>
@@ -15504,7 +15936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>500</v>
       </c>
@@ -15525,7 +15957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>506</v>
       </c>
@@ -15546,7 +15978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>389</v>
       </c>
@@ -15567,7 +15999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>386</v>
       </c>
@@ -15588,7 +16020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>235</v>
       </c>
@@ -15609,7 +16041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -15630,7 +16062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -15651,7 +16083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>395</v>
       </c>
@@ -15672,7 +16104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -15693,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>591</v>
       </c>
@@ -15714,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>452</v>
       </c>
@@ -15735,7 +16167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -15756,7 +16188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>205</v>
       </c>
@@ -15777,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -15798,7 +16230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>415</v>
       </c>
@@ -15819,7 +16251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>405</v>
       </c>
@@ -15840,7 +16272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>417</v>
       </c>
@@ -15861,7 +16293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>407</v>
       </c>
@@ -15882,7 +16314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>398</v>
       </c>
@@ -15903,7 +16335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>401</v>
       </c>
@@ -15924,7 +16356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>411</v>
       </c>
@@ -15945,7 +16377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>413</v>
       </c>
@@ -15966,7 +16398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>403</v>
       </c>
@@ -15987,7 +16419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>409</v>
       </c>
@@ -16008,7 +16440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>471</v>
       </c>
@@ -16029,7 +16461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>570</v>
       </c>
@@ -16050,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>222</v>
       </c>
@@ -16071,7 +16503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -16092,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -16113,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -16134,7 +16566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>487</v>
       </c>
@@ -16155,7 +16587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>306</v>
       </c>
@@ -16176,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -16197,7 +16629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>602</v>
       </c>
@@ -16218,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>275</v>
       </c>
@@ -16243,4 +16675,449 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905F0954-DB52-2243-B054-7FAD5AD8AA8B}">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="127.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>889</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>895</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>896</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>898</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>899</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>900</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>901</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>902</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>903</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>904</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>905</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>906</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>907</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="11" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="11" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>908</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>909</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>911</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>912</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>913</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>914</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>915</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>916</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>917</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>918</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>919</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>920</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>921</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>922</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>924</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>923</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>925</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>926</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>927</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>928</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>929</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>930</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>931</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>932</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>933</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>934</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>935</v>
+      </c>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>936</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>937</v>
+      </c>
+      <c r="B59" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B61">
+    <sortCondition ref="B1:B61"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>